--- a/db/INV-3011-FinancialWebsite.xlsx
+++ b/db/INV-3011-FinancialWebsite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-Investment/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-InvestmentB/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0CC36A-51E5-EA4D-A4CE-705C9D3FF556}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAC22B6-39BA-2540-80CF-A0454F5B49C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="11280" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="4400" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>https://www.taishinbank.com.tw/TSB/personal/</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -376,6 +376,24 @@
   </si>
   <si>
     <t>fig/INV-3011-Bank-兆豐銀行.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>錢管家- Money錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moneynet.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/INV-3013-Magazine-Money錢.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,13 +463,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -755,13 +774,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1133,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>80</v>
@@ -1126,6 +1145,23 @@
         <v>82</v>
       </c>
       <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1155,6 +1191,7 @@
     <hyperlink ref="D5" r:id="rId13" xr:uid="{F6076A74-88FC-2A4F-9C6A-1F5A096C705E}"/>
     <hyperlink ref="D21" r:id="rId14" xr:uid="{70A7E5CB-6A84-594C-921E-4650B2D58D6D}"/>
     <hyperlink ref="D6" r:id="rId15" xr:uid="{B607ADD9-F1E1-C947-80A4-82734A74BD91}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{DA1E85A9-0B88-AB46-B468-507B363B8FAA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/INV-3011-FinancialWebsite.xlsx
+++ b/db/INV-3011-FinancialWebsite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-InvestmentB/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAC22B6-39BA-2540-80CF-A0454F5B49C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4DFFF-2BB8-DA48-8CC8-C070C8C8AB89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="4400" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16060" yWindow="5480" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>https://www.taishinbank.com.tw/TSB/personal/</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -394,6 +394,36 @@
   </si>
   <si>
     <t>fig/INV-3013-Magazine-Money錢.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>先探i投資</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>財訊雜誌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://weekly.invest.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.wealth.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/INV-3013-Magazine-先探.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/INV-3013-Magazine-財訊.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -774,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1162,6 +1192,40 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1192,6 +1256,8 @@
     <hyperlink ref="D21" r:id="rId14" xr:uid="{70A7E5CB-6A84-594C-921E-4650B2D58D6D}"/>
     <hyperlink ref="D6" r:id="rId15" xr:uid="{B607ADD9-F1E1-C947-80A4-82734A74BD91}"/>
     <hyperlink ref="D22" r:id="rId16" xr:uid="{DA1E85A9-0B88-AB46-B468-507B363B8FAA}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{0EF66496-3F20-AD4B-80C3-E9425FC8B12B}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{C51D25F2-667C-3644-B1D2-9FEB939E5015}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
